--- a/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
+++ b/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Multi_Condition_Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4453D60A-975E-4C5C-AC67-BE59C1D69F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80117B57-16F4-407A-8697-C68B1DA5C966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>Order ID</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>Total Revenue for Ada in the North region</t>
+  </si>
+  <si>
+    <t>Total Revenue for Phones in February</t>
+  </si>
+  <si>
+    <t>Count how many sales were made by Bola in the South region</t>
+  </si>
+  <si>
+    <t>Count how many sales in March were for Laptop</t>
   </si>
 </sst>
 </file>
@@ -448,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,9 +735,53 @@
         <v>1050000</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4">
+        <f>SUMIFS(F2:F11, D2:D11, $D$3, G2:G11, $G$4)</f>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17">
+        <f xml:space="preserve"> COUNTIFS(C2:C11, "Bola", B2:B11, "South")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18">
+        <f xml:space="preserve"> COUNTIFS(G2:G11, "March", D2:D11, "Laptop")</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
+++ b/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Multi_Condition_Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80117B57-16F4-407A-8697-C68B1DA5C966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB775A62-2FE5-4D50-81F8-4790B693E978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Order ID</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Count how many sales in March were for Laptop</t>
+  </si>
+  <si>
+    <t>Average revenue for Laptops in the West region</t>
   </si>
 </sst>
 </file>
@@ -117,7 +120,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -169,13 +172,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -457,16 +460,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -485,7 +488,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -508,7 +511,7 @@
       <c r="E2">
         <v>8</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>400000</v>
       </c>
       <c r="G2" t="s">
@@ -531,7 +534,7 @@
       <c r="E3">
         <v>15</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>300000</v>
       </c>
       <c r="G3" t="s">
@@ -554,7 +557,7 @@
       <c r="E4">
         <v>10</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>250000</v>
       </c>
       <c r="G4" t="s">
@@ -577,7 +580,7 @@
       <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>250000</v>
       </c>
       <c r="G5" t="s">
@@ -600,7 +603,7 @@
       <c r="E6">
         <v>12</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>240000</v>
       </c>
       <c r="G6" t="s">
@@ -623,7 +626,7 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>150000</v>
       </c>
       <c r="G7" t="s">
@@ -646,7 +649,7 @@
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>350000</v>
       </c>
       <c r="G8" t="s">
@@ -669,7 +672,7 @@
       <c r="E9">
         <v>20</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>400000</v>
       </c>
       <c r="G9" t="s">
@@ -692,7 +695,7 @@
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>200000</v>
       </c>
       <c r="G10" t="s">
@@ -715,7 +718,7 @@
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>200000</v>
       </c>
       <c r="G11" t="s">
@@ -723,57 +726,62 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="4">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3">
         <f xml:space="preserve"> SUMIFS(F2:F11, C2:C11, "Ada", B2:B11, "North")</f>
         <v>1050000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="4">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3">
         <f>SUMIFS(F2:F11, D2:D11, $D$3, G2:G11, $G$4)</f>
         <v>240000</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
       <c r="G17">
         <f xml:space="preserve"> COUNTIFS(C2:C11, "Bola", B2:B11, "South")</f>
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
       <c r="G18">
         <f xml:space="preserve"> COUNTIFS(G2:G11, "March", D2:D11, "Laptop")</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
+++ b/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Multi_Condition_Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB775A62-2FE5-4D50-81F8-4790B693E978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8A3CD1-A229-47C2-844E-7913F62413BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,6 +177,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -463,7 +466,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A20" sqref="A20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -780,16 +783,22 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
+++ b/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Multi_Condition_Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8A3CD1-A229-47C2-844E-7913F62413BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D49E9C5-37B3-40BD-B9FB-9348A3781D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,9 +177,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -783,14 +780,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
+++ b/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Multi_Condition_Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D49E9C5-37B3-40BD-B9FB-9348A3781D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDC17D3-2F70-4199-B353-06CC421CE892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,7 +463,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:F20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -788,6 +788,10 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
+      <c r="G20">
+        <f xml:space="preserve"> AVERAGEIFS(F2:F11, D2:D11, "Laptop", B2:B11, "West")</f>
+        <v>300000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
+++ b/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Multi_Condition_Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDC17D3-2F70-4199-B353-06CC421CE892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5959179-AF3D-4AD1-8AFF-D7D0AED956CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,13 +463,14 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -788,7 +789,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20">
+      <c r="G20" s="3">
         <f xml:space="preserve"> AVERAGEIFS(F2:F11, D2:D11, "Laptop", B2:B11, "West")</f>
         <v>300000</v>
       </c>

--- a/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
+++ b/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Multi_Condition_Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5959179-AF3D-4AD1-8AFF-D7D0AED956CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E5B9B8-32D6-447F-BCF8-DA38A44D903C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>Order ID</t>
   </si>
@@ -112,6 +112,53 @@
   </si>
   <si>
     <t>Average revenue for Laptops in the West region</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Average </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Units Sold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in all months:</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -460,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -794,6 +841,11 @@
         <v>300000</v>
       </c>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A14:E14"/>

--- a/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
+++ b/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Multi_Condition_Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E5B9B8-32D6-447F-BCF8-DA38A44D903C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD9D80A-0767-4A10-BFD1-554B3687D81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> in all months:</t>
+      <t xml:space="preserve"> in all months</t>
     </r>
   </si>
 </sst>
@@ -214,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,6 +224,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -510,7 +513,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A21" sqref="A21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -842,12 +845,18 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A21:F21"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A17:F17"/>

--- a/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
+++ b/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Multi_Condition_Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD9D80A-0767-4A10-BFD1-554B3687D81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD3D7ED-F2F8-44F0-9104-851872FEA115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,51 +114,7 @@
     <t>Average revenue for Laptops in the West region</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Average </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Units Sold</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> by </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ada</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in all months</t>
-    </r>
+    <t>Average Units Sold by Ada in all months</t>
   </si>
 </sst>
 </file>
@@ -214,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,9 +180,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -845,14 +798,14 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
+++ b/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Multi_Condition_Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD3D7ED-F2F8-44F0-9104-851872FEA115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0132EF6A-80AC-4659-989E-517A1A08ED58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:F21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -806,6 +806,10 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
+      <c r="G21">
+        <f xml:space="preserve"> AVERAGEIFS(E2:E11, C2:C11, "Ada")</f>
+        <v>12.666666666666666</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
+++ b/stage_2/Multi_Condition_Formulas/Multi_condition_formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Multi_Condition_Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0132EF6A-80AC-4659-989E-517A1A08ED58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9376CC-6B66-46F6-993D-2ADE4DCDDFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,6 +182,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -466,7 +467,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -806,7 +807,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21">
+      <c r="G21" s="5">
         <f xml:space="preserve"> AVERAGEIFS(E2:E11, C2:C11, "Ada")</f>
         <v>12.666666666666666</v>
       </c>
